--- a/biology/Botanique/Scrophularia_heterophylla/Scrophularia_heterophylla.xlsx
+++ b/biology/Botanique/Scrophularia_heterophylla/Scrophularia_heterophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scrophularia heterophylla est une espèce de plantes herbacées vivaces de la famille des Scrofulariacées, originaire de l'est du bassin méditerranéen.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Scrophularia caesia Sm.
 Scrophularia chrysanthemifolia Bory &amp; Chaub.
@@ -521,7 +535,7 @@
 Scrophularia sibthorpiana Spreng.
 Scrophularia taygetea Boiss.
 Scrophularia tenuis Hausskn.
-Scrophularia urvilleana Wydler[2]</t>
+Scrophularia urvilleana Wydler</t>
         </is>
       </c>
     </row>
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles dentées ou profondément échancrées, assez charnues.
 </t>
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les rochers ou les vieux murs, souvent près de la mer
 </t>
@@ -611,11 +629,13 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (24 septembre 2019)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (24 septembre 2019) :
 sous-espèce Scrophularia heterophylla subsp. laciniata (Waldst. &amp; Kit.) Maire &amp; Petitm.
-Selon Tropicos                                           (24 septembre 2019)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Scrophularia heterophylla subsp. laciniata Maire &amp; Petitm.
 variété Scrophularia heterophylla var. heterophylla</t>
         </is>
